--- a/Correlations fancy.xlsx
+++ b/Correlations fancy.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aladog/cccai/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1880" windowWidth="28040" windowHeight="17040" xr2:uid="{DEEE9A63-F05F-094E-A2B0-354010B9D7BB}"/>
+    <workbookView xWindow="760" yWindow="880" windowWidth="28040" windowHeight="17040" xr2:uid="{DEEE9A63-F05F-094E-A2B0-354010B9D7BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,8 +244,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +286,30 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -353,7 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -370,6 +408,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -387,31 +429,31 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -740,10 +782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FA2E79-CBC4-9644-BB72-0D85C65F05CF}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:ES164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DT132" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="DW127" sqref="DW127:EM143"/>
+    <sheetView tabSelected="1" topLeftCell="DL123" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="ER134" sqref="ER134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22962,7 +23005,7 @@
       <c r="EN112" s="5"/>
       <c r="EO112" s="1"/>
     </row>
-    <row r="113" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -23160,7 +23203,7 @@
       <c r="EN113" s="5"/>
       <c r="EO113" s="1"/>
     </row>
-    <row r="114" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -23358,7 +23401,7 @@
       <c r="EN114" s="5"/>
       <c r="EO114" s="1"/>
     </row>
-    <row r="115" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -23556,7 +23599,7 @@
       <c r="EN115" s="5"/>
       <c r="EO115" s="1"/>
     </row>
-    <row r="116" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -23754,7 +23797,7 @@
       <c r="EN116" s="5"/>
       <c r="EO116" s="1"/>
     </row>
-    <row r="117" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -23878,7 +23921,7 @@
       <c r="DQ117" s="5"/>
       <c r="DR117" s="5"/>
       <c r="DS117" s="5"/>
-      <c r="DT117" s="5"/>
+      <c r="DT117" s="15"/>
       <c r="DU117" s="5"/>
       <c r="DV117" s="5"/>
       <c r="DW117" s="5">
@@ -23952,7 +23995,7 @@
       <c r="EN117" s="5"/>
       <c r="EO117" s="1"/>
     </row>
-    <row r="118" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -24076,7 +24119,7 @@
       <c r="DQ118" s="5"/>
       <c r="DR118" s="5"/>
       <c r="DS118" s="5"/>
-      <c r="DT118" s="5"/>
+      <c r="DT118" s="14"/>
       <c r="DU118" s="5"/>
       <c r="DV118" s="5"/>
       <c r="DW118" s="5">
@@ -24150,7 +24193,7 @@
       <c r="EN118" s="5"/>
       <c r="EO118" s="1"/>
     </row>
-    <row r="119" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -24266,6 +24309,7 @@
       <c r="DO119" s="5"/>
       <c r="DP119" s="5"/>
       <c r="DQ119" s="5"/>
+      <c r="DT119" s="16"/>
       <c r="DW119" s="5">
         <f ca="1"/>
         <v>1.1125464811619628</v>
@@ -24337,7 +24381,7 @@
       <c r="EN119" s="5"/>
       <c r="EO119" s="1"/>
     </row>
-    <row r="120" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -24453,6 +24497,7 @@
       <c r="DO120" s="5"/>
       <c r="DP120" s="5"/>
       <c r="DQ120" s="5"/>
+      <c r="DT120" s="17"/>
       <c r="DW120" s="5">
         <f ca="1"/>
         <v>1.1125464811619628</v>
@@ -24524,7 +24569,7 @@
       <c r="EN120" s="5"/>
       <c r="EO120" s="1"/>
     </row>
-    <row r="121" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -24711,7 +24756,7 @@
       <c r="EN121" s="5"/>
       <c r="EO121" s="1"/>
     </row>
-    <row r="122" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -24904,7 +24949,7 @@
       <c r="EN122" s="5"/>
       <c r="EO122" s="1"/>
     </row>
-    <row r="123" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -25097,7 +25142,7 @@
       <c r="EN123" s="5"/>
       <c r="EO123" s="1"/>
     </row>
-    <row r="124" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -25290,7 +25335,7 @@
       <c r="EN124" s="5"/>
       <c r="EO124" s="1"/>
     </row>
-    <row r="125" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -25483,7 +25528,7 @@
       <c r="EN125" s="5"/>
       <c r="EO125" s="1"/>
     </row>
-    <row r="126" spans="1:146" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:148" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -25679,7 +25724,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="127" spans="1:146" ht="21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:148" ht="21" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -26188,7 +26233,7 @@
         <v>1</v>
       </c>
       <c r="DX127" s="8">
-        <f t="shared" ref="DX127:EM142" ca="1" si="0">PEARSON($B127:$DV127,DX$2:DX$126)</f>
+        <f t="shared" ref="DX127:EL142" ca="1" si="0">PEARSON($B127:$DV127,DX$2:DX$126)</f>
         <v>0.60233647926263578</v>
       </c>
       <c r="DY127" s="8">
@@ -26247,10 +26292,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>-0.14158303274692649</v>
       </c>
-      <c r="EM127" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51137312735202078</v>
-      </c>
+      <c r="EM127" s="8"/>
       <c r="EN127" s="6" t="s">
         <v>0</v>
       </c>
@@ -26260,8 +26302,16 @@
       <c r="EP127">
         <v>0.3</v>
       </c>
+      <c r="EQ127">
+        <f t="array" aca="1" ref="EQ127" ca="1">SUM(ABS(DW127:EL127))</f>
+        <v>5.1131245403042547</v>
+      </c>
+      <c r="ER127">
+        <f ca="1">RANK(EQ127, EQ$127:EQ$142)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="128" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>1</v>
       </c>
@@ -26766,7 +26816,7 @@
         <v>0.47621615816048818</v>
       </c>
       <c r="DW128" s="8">
-        <f t="shared" ref="DW128:EL143" ca="1" si="1">PEARSON($B128:$DV128,DW$2:DW$126)</f>
+        <f t="shared" ref="DW128:EJ142" ca="1" si="1">PEARSON($B128:$DV128,DW$2:DW$126)</f>
         <v>0.60233647926263578</v>
       </c>
       <c r="DX128" s="8">
@@ -26829,10 +26879,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>-9.7783647439673767E-3</v>
       </c>
-      <c r="EM128" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31960257320525948</v>
-      </c>
+      <c r="EM128" s="8"/>
       <c r="EN128" s="6" t="s">
         <v>1</v>
       </c>
@@ -26842,8 +26889,16 @@
       <c r="EP128">
         <v>0.5</v>
       </c>
+      <c r="EQ128">
+        <f t="array" aca="1" ref="EQ128" ca="1">SUM(ABS(DW128:EL128))</f>
+        <v>4.0896986764187293</v>
+      </c>
+      <c r="ER128">
+        <f t="shared" ref="ER128:ER143" ca="1" si="2">RANK(EQ128, EQ$127:EQ$142)</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="129" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>2</v>
       </c>
@@ -27411,10 +27466,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>-0.12374742086537883</v>
       </c>
-      <c r="EM129" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.32943627952076121</v>
-      </c>
+      <c r="EM129" s="8"/>
       <c r="EN129" s="6" t="s">
         <v>2</v>
       </c>
@@ -27424,8 +27476,16 @@
       <c r="EP129">
         <v>0.99990000000000001</v>
       </c>
+      <c r="EQ129">
+        <f t="array" aca="1" ref="EQ129" ca="1">SUM(ABS(DW129:EL129))</f>
+        <v>4.0187221073058748</v>
+      </c>
+      <c r="ER129">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="130" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>3</v>
       </c>
@@ -27993,18 +28053,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>-0.11683199803209725</v>
       </c>
-      <c r="EM130" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14133560855785057</v>
-      </c>
+      <c r="EM130" s="8"/>
       <c r="EN130" s="6" t="s">
         <v>3</v>
       </c>
       <c r="EO130" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="EQ130">
+        <f t="array" aca="1" ref="EQ130" ca="1">SUM(ABS(DW130:EL130))</f>
+        <v>4.7149359632697143</v>
+      </c>
+      <c r="ER130">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="131" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>4</v>
       </c>
@@ -28572,18 +28637,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>5.1449932563067576E-2</v>
       </c>
-      <c r="EM131" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.16992774984022696</v>
-      </c>
+      <c r="EM131" s="8"/>
       <c r="EN131" s="6" t="s">
         <v>4</v>
       </c>
       <c r="EO131" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="EQ131">
+        <f t="array" aca="1" ref="EQ131" ca="1">SUM(ABS(DW131:EL131))</f>
+        <v>4.2479585102701733</v>
+      </c>
+      <c r="ER131">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="132" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>5</v>
       </c>
@@ -29151,18 +29221,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>1.429810795594883E-2</v>
       </c>
-      <c r="EM132" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.17879591109184811</v>
-      </c>
+      <c r="EM132" s="8"/>
       <c r="EN132" s="6" t="s">
         <v>5</v>
       </c>
       <c r="EO132" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="EQ132">
+        <f t="array" aca="1" ref="EQ132" ca="1">SUM(ABS(DW132:EL132))</f>
+        <v>4.5541756641348545</v>
+      </c>
+      <c r="ER132">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="133" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>6</v>
       </c>
@@ -29730,18 +29805,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>-3.1055343116351028E-3</v>
       </c>
-      <c r="EM133" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.25598127137337334</v>
-      </c>
+      <c r="EM133" s="8"/>
       <c r="EN133" s="6" t="s">
         <v>6</v>
       </c>
       <c r="EO133" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="EQ133">
+        <f t="array" aca="1" ref="EQ133" ca="1">SUM(ABS(DW133:EL133))</f>
+        <v>3.8564335978324547</v>
+      </c>
+      <c r="ER133">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="134" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>7</v>
       </c>
@@ -30309,18 +30389,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>-4.9626714412973338E-2</v>
       </c>
-      <c r="EM134" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20861425854833907</v>
-      </c>
+      <c r="EM134" s="8"/>
       <c r="EN134" s="6" t="s">
         <v>7</v>
       </c>
       <c r="EO134" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="EQ134">
+        <f t="array" aca="1" ref="EQ134" ca="1">SUM(ABS(DW134:EL134))</f>
+        <v>5.2276425344789681</v>
+      </c>
+      <c r="ER134">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="135" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>8</v>
       </c>
@@ -30888,18 +30973,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>-0.10866982519039685</v>
       </c>
-      <c r="EM135" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55425809068322041</v>
-      </c>
+      <c r="EM135" s="8"/>
       <c r="EN135" s="6" t="s">
         <v>8</v>
       </c>
       <c r="EO135" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="EQ135">
+        <f t="array" aca="1" ref="EQ135" ca="1">SUM(ABS(DW135:EL135))</f>
+        <v>4.743187372117208</v>
+      </c>
+      <c r="ER135">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="136" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>9</v>
       </c>
@@ -31467,18 +31557,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>-0.14579519253384862</v>
       </c>
-      <c r="EM136" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64972614989089816</v>
-      </c>
+      <c r="EM136" s="8"/>
       <c r="EN136" s="6" t="s">
         <v>9</v>
       </c>
       <c r="EO136" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="EQ136">
+        <f t="array" aca="1" ref="EQ136" ca="1">SUM(ABS(DW136:EL136))</f>
+        <v>4.9514828874865229</v>
+      </c>
+      <c r="ER136">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="137" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>10</v>
       </c>
@@ -32046,18 +32141,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.70641935018759017</v>
       </c>
-      <c r="EM137" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-8.3614983730990772E-2</v>
-      </c>
+      <c r="EM137" s="8"/>
       <c r="EN137" s="6" t="s">
         <v>10</v>
       </c>
       <c r="EO137" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="EQ137">
+        <f t="array" aca="1" ref="EQ137" ca="1">SUM(ABS(DW137:EL137))</f>
+        <v>4.3992751152807026</v>
+      </c>
+      <c r="ER137">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="138" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>11</v>
       </c>
@@ -32625,18 +32725,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.67716210862955084</v>
       </c>
-      <c r="EM138" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.9761180934514947E-2</v>
-      </c>
+      <c r="EM138" s="8"/>
       <c r="EN138" s="6" t="s">
         <v>11</v>
       </c>
       <c r="EO138" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="EQ138">
+        <f t="array" aca="1" ref="EQ138" ca="1">SUM(ABS(DW138:EL138))</f>
+        <v>4.0061988011150307</v>
+      </c>
+      <c r="ER138">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="139" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>12</v>
       </c>
@@ -33204,18 +33309,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.75300972546611067</v>
       </c>
-      <c r="EM139" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.21923661233048025</v>
-      </c>
+      <c r="EM139" s="8"/>
       <c r="EN139" s="6" t="s">
         <v>12</v>
       </c>
       <c r="EO139" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="EQ139">
+        <f t="array" aca="1" ref="EQ139" ca="1">SUM(ABS(DW139:EL139))</f>
+        <v>4.3623875337189846</v>
+      </c>
+      <c r="ER139">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="140" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>13</v>
       </c>
@@ -33783,18 +33893,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.47779113531380968</v>
       </c>
-      <c r="EM140" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.15379255154210969</v>
-      </c>
+      <c r="EM140" s="8"/>
       <c r="EN140" s="6" t="s">
         <v>13</v>
       </c>
       <c r="EO140" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="EQ140">
+        <f t="array" aca="1" ref="EQ140" ca="1">SUM(ABS(DW140:EL140))</f>
+        <v>4.1772162158231332</v>
+      </c>
+      <c r="ER140">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="141" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>36</v>
       </c>
@@ -34362,18 +34477,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.32259031150781314</v>
       </c>
-      <c r="EM141" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8484006757480976E-2</v>
-      </c>
+      <c r="EM141" s="8"/>
       <c r="EN141" s="6" t="s">
         <v>36</v>
       </c>
       <c r="EO141" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="EQ141">
+        <f t="array" aca="1" ref="EQ141" ca="1">SUM(ABS(DW141:EL141))</f>
+        <v>2.9876579845269156</v>
+      </c>
+      <c r="ER141">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="142" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>46</v>
       </c>
@@ -34941,18 +35061,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="EM142" s="8">
-        <f ca="1">PEARSON($B142:$DV142,EM$2:EM$126)</f>
-        <v>-0.14072613603918735</v>
-      </c>
+      <c r="EM142" s="8"/>
       <c r="EN142" s="6" t="s">
         <v>46</v>
       </c>
       <c r="EO142" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="EQ142">
+        <f t="array" aca="1" ref="EQ142" ca="1">SUM(ABS(DW142:EL142))</f>
+        <v>4.7018587544611155</v>
+      </c>
+      <c r="ER142">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="143" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>47</v>
       </c>
@@ -35456,82 +35581,35 @@
         <f ca="1"/>
         <v>4.7809144373375786E-2</v>
       </c>
-      <c r="DW143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51137312735202078</v>
-      </c>
-      <c r="DX143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31960257320525948</v>
-      </c>
-      <c r="DY143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.32943627952076121</v>
-      </c>
-      <c r="DZ143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14133560855785057</v>
-      </c>
-      <c r="EA143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.16992774984022696</v>
-      </c>
-      <c r="EB143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.17879591109184811</v>
-      </c>
-      <c r="EC143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.25598127137337334</v>
-      </c>
-      <c r="ED143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20861425854833907</v>
-      </c>
-      <c r="EE143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.55425809068322041</v>
-      </c>
-      <c r="EF143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.64972614989089816</v>
-      </c>
-      <c r="EG143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.3614983730990772E-2</v>
-      </c>
-      <c r="EH143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.9761180934514947E-2</v>
-      </c>
-      <c r="EI143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.21923661233048025</v>
-      </c>
-      <c r="EJ143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.15379255154210969</v>
-      </c>
-      <c r="EK143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.8484006757480976E-2</v>
-      </c>
-      <c r="EL143" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.14072613603918735</v>
-      </c>
-      <c r="EM143" s="8">
-        <f t="shared" ref="EM143" ca="1" si="2">PEARSON($B143:$DV143,EM$2:EM$126)</f>
-        <v>1</v>
-      </c>
+      <c r="DW143" s="8"/>
+      <c r="DX143" s="8"/>
+      <c r="DY143" s="8"/>
+      <c r="DZ143" s="8"/>
+      <c r="EA143" s="8"/>
+      <c r="EB143" s="8"/>
+      <c r="EC143" s="8"/>
+      <c r="ED143" s="8"/>
+      <c r="EE143" s="8"/>
+      <c r="EF143" s="8"/>
+      <c r="EG143" s="8"/>
+      <c r="EH143" s="8"/>
+      <c r="EI143" s="8"/>
+      <c r="EJ143" s="8"/>
+      <c r="EK143" s="8"/>
+      <c r="EL143" s="8"/>
+      <c r="EM143" s="8"/>
       <c r="EN143" s="6" t="s">
         <v>47</v>
       </c>
       <c r="EO143" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="ER143" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="144" spans="1:146" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:148" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -35862,12 +35940,12 @@
       <c r="EO145" s="1"/>
     </row>
     <row r="146" spans="1:149" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -36054,12 +36132,12 @@
       </c>
     </row>
     <row r="147" spans="1:149" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="18" t="s">
+      <c r="A147" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -36240,12 +36318,12 @@
       </c>
     </row>
     <row r="148" spans="1:149" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
@@ -36369,7 +36447,7 @@
       <c r="DU148" s="5"/>
       <c r="DV148" s="5"/>
       <c r="DW148" s="8">
-        <f t="shared" ref="DW148:EM148" ca="1" si="3">IF(ABS(DW151)&gt;ABS(DW153), DW151, DW153)</f>
+        <f t="shared" ref="DW148:EK148" ca="1" si="3">IF(ABS(DW151)&gt;ABS(DW153), DW151, DW153)</f>
         <v>0.60233647926263578</v>
       </c>
       <c r="DX148" s="8">
@@ -36572,63 +36650,63 @@
       <c r="DU149" s="5"/>
       <c r="DV149" s="5"/>
       <c r="DW149" s="10" t="e">
-        <f ca="1">VLOOKUP(DW150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ref="DW149:EK149" ca="1" si="4">VLOOKUP(DW150,$EN$127:$EO$141,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="DX149" s="10" t="e">
-        <f ca="1">VLOOKUP(DX150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="DY149" s="10" t="e">
-        <f ca="1">VLOOKUP(DY150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="DZ149" s="10" t="e">
-        <f ca="1">VLOOKUP(DZ150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EA149" s="10" t="e">
-        <f ca="1">VLOOKUP(EA150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EB149" s="10" t="e">
-        <f ca="1">VLOOKUP(EB150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EC149" s="10" t="e">
-        <f ca="1">VLOOKUP(EC150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="ED149" s="10" t="e">
-        <f ca="1">VLOOKUP(ED150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EE149" s="10" t="e">
-        <f ca="1">VLOOKUP(EE150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EF149" s="10" t="e">
-        <f ca="1">VLOOKUP(EF150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EG149" s="10" t="e">
-        <f ca="1">VLOOKUP(EG150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EH149" s="10" t="e">
-        <f ca="1">VLOOKUP(EH150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EI149" s="10" t="e">
-        <f ca="1">VLOOKUP(EI150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EJ149" s="10" t="e">
-        <f ca="1">VLOOKUP(EJ150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EK149" s="10" t="e">
-        <f ca="1">VLOOKUP(EK150,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="EL149" s="6"/>
@@ -36641,12 +36719,12 @@
       <c r="ES149" s="5"/>
     </row>
     <row r="150" spans="1:149" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -36774,59 +36852,59 @@
         <v>-0.00977836474396738</v>
       </c>
       <c r="DX150" s="5">
-        <f t="shared" ref="DX150:EK150" ca="1" si="4">IF(ABS(DX151)&gt;ABS(DX153), DX152, DX154)</f>
+        <f t="shared" ref="DX150:EK150" ca="1" si="5">IF(ABS(DX151)&gt;ABS(DX153), DX152, DX154)</f>
         <v>-0.14158303274692649</v>
       </c>
       <c r="DY150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-3.1055343116351028E-3</v>
       </c>
       <c r="DZ150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-9.7783647439673767E-3</v>
       </c>
       <c r="EA150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-0.12374742086537883</v>
       </c>
       <c r="EB150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-3.1055343116351028E-3</v>
       </c>
       <c r="EC150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.429810795594883E-2</v>
       </c>
       <c r="ED150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-0.10866982519039685</v>
       </c>
       <c r="EE150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-0.14579519253384862</v>
       </c>
       <c r="EF150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-0.10866982519039685</v>
       </c>
       <c r="EG150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.67716210862955084</v>
       </c>
       <c r="EH150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.70641935018759017</v>
       </c>
       <c r="EI150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.70641935018759017</v>
       </c>
       <c r="EJ150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5.1449932563067576E-2</v>
       </c>
       <c r="EK150" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.47779113531380968</v>
       </c>
       <c r="EL150" s="6"/>
@@ -36843,12 +36921,12 @@
       </c>
     </row>
     <row r="151" spans="1:149" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="16"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="20"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -36972,63 +37050,63 @@
       <c r="DU151" s="5"/>
       <c r="DV151" s="5"/>
       <c r="DW151" s="12">
-        <f ca="1">MIN(DW127:DW141)</f>
+        <f t="shared" ref="DW151:EK151" ca="1" si="6">MIN(DW127:DW141)</f>
         <v>-0.2499539048227751</v>
       </c>
       <c r="DX151" s="12">
-        <f ca="1">MIN(DX127:DX141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.17342617064489194</v>
       </c>
       <c r="DY151" s="12">
-        <f ca="1">MIN(DY127:DY141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.20609607400087723</v>
       </c>
       <c r="DZ151" s="12">
-        <f ca="1">MIN(DZ127:DZ141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.25698155807197881</v>
       </c>
       <c r="EA151" s="12">
-        <f ca="1">MIN(EA127:EA141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.19013860496530227</v>
       </c>
       <c r="EB151" s="12">
-        <f ca="1">MIN(EB127:EB141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.21545987909610256</v>
       </c>
       <c r="EC151" s="12">
-        <f ca="1">MIN(EC127:EC141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.15257898111970733</v>
       </c>
       <c r="ED151" s="12">
-        <f ca="1">MIN(ED127:ED141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.23171331779125279</v>
       </c>
       <c r="EE151" s="12">
-        <f ca="1">MIN(EE127:EE141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.23948632198619077</v>
       </c>
       <c r="EF151" s="12">
-        <f ca="1">MIN(EF127:EF141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.23505268608996324</v>
       </c>
       <c r="EG151" s="12">
-        <f ca="1">MIN(EG127:EG141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.21022621220655507</v>
       </c>
       <c r="EH151" s="12">
-        <f ca="1">MIN(EH127:EH141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.20609607400087723</v>
       </c>
       <c r="EI151" s="12">
-        <f ca="1">MIN(EI127:EI141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.25698155807197881</v>
       </c>
       <c r="EJ151" s="12">
-        <f ca="1">MIN(EJ127:EJ141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.38007484707090505</v>
       </c>
       <c r="EK151" s="12">
-        <f ca="1">MIN(EK127:EK141)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.38007484707090505</v>
       </c>
       <c r="EL151" s="6"/>
@@ -37046,12 +37124,12 @@
       </c>
     </row>
     <row r="152" spans="1:149" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="16"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="20"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -37247,12 +37325,12 @@
       </c>
     </row>
     <row r="153" spans="1:149" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="16"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="20"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
@@ -37376,63 +37454,63 @@
       <c r="DU153" s="5"/>
       <c r="DV153" s="5"/>
       <c r="DW153" s="12">
-        <f ca="1">LARGE(DW127:DW141,2)</f>
+        <f t="shared" ref="DW153:EK153" ca="1" si="7">LARGE(DW127:DW141,2)</f>
         <v>0.60233647926263578</v>
       </c>
       <c r="DX153" s="12">
-        <f ca="1">LARGE(DX127:DX141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.60233647926263578</v>
       </c>
       <c r="DY153" s="12">
-        <f ca="1">LARGE(DY127:DY141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50217485268021189</v>
       </c>
       <c r="DZ153" s="12">
-        <f ca="1">LARGE(DZ127:DZ141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.46026283762961856</v>
       </c>
       <c r="EA153" s="12">
-        <f ca="1">LARGE(EA127:EA141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.40149057398385468</v>
       </c>
       <c r="EB153" s="12">
-        <f ca="1">LARGE(EB127:EB141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.58909890943398191</v>
       </c>
       <c r="EC153" s="12">
-        <f ca="1">LARGE(EC127:EC141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.58909890943398191</v>
       </c>
       <c r="ED153" s="12">
-        <f ca="1">LARGE(ED127:ED141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.52620362725483782</v>
       </c>
       <c r="EE153" s="12">
-        <f ca="1">LARGE(EE127:EE141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.78111205247705018</v>
       </c>
       <c r="EF153" s="12">
-        <f ca="1">LARGE(EF127:EF141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.78111205247705018</v>
       </c>
       <c r="EG153" s="12">
-        <f ca="1">LARGE(EG127:EG141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.61535611660471023</v>
       </c>
       <c r="EH153" s="12">
-        <f ca="1">LARGE(EH127:EH141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.61535611660471023</v>
       </c>
       <c r="EI153" s="12">
-        <f ca="1">LARGE(EI127:EI141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.50461055142123579</v>
       </c>
       <c r="EJ153" s="12">
-        <f ca="1">LARGE(EJ127:EJ141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.39458636897898552</v>
       </c>
       <c r="EK153" s="12">
-        <f ca="1">LARGE(EK127:EK141,2)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.1384778843677662</v>
       </c>
       <c r="EL153" s="6"/>
@@ -37450,12 +37528,12 @@
       </c>
     </row>
     <row r="154" spans="1:149" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="16"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="20"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
@@ -37793,12 +37871,12 @@
       <c r="EO155" s="1"/>
     </row>
     <row r="156" spans="1:149" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -37972,12 +38050,12 @@
       <c r="EO156" s="1"/>
     </row>
     <row r="157" spans="1:149" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="18" t="s">
+      <c r="A157" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -38151,12 +38229,12 @@
       <c r="EO157" s="1"/>
     </row>
     <row r="158" spans="1:149" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -38280,63 +38358,63 @@
       <c r="DU158" s="5"/>
       <c r="DV158" s="5"/>
       <c r="DW158" s="8">
-        <f t="shared" ref="DW158:EK158" ca="1" si="5">IF(ABS(DW161)&gt;ABS(DW163), DW161, DW163)</f>
+        <f t="shared" ref="DW158:EK158" ca="1" si="8">IF(ABS(DW161)&gt;ABS(DW163), DW161, DW163)</f>
         <v>0.60233647926263578</v>
       </c>
       <c r="DX158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.60233647926263578</v>
       </c>
       <c r="DY158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.50217485268021189</v>
       </c>
       <c r="DZ158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.46026283762961856</v>
       </c>
       <c r="EA158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.40149057398385468</v>
       </c>
       <c r="EB158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.58909890943398191</v>
       </c>
       <c r="EC158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.58909890943398191</v>
       </c>
       <c r="ED158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.52620362725483782</v>
       </c>
       <c r="EE158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.78111205247705018</v>
       </c>
       <c r="EF158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.78111205247705018</v>
       </c>
       <c r="EG158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-0.21022621220655507</v>
       </c>
       <c r="EH158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-0.20609607400087723</v>
       </c>
       <c r="EI158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-0.25698155807197881</v>
       </c>
       <c r="EJ158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0.24604102228498961</v>
       </c>
       <c r="EK158" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-0.23171331779125279</v>
       </c>
       <c r="EL158" s="6"/>
@@ -38474,63 +38552,63 @@
       <c r="DU159" s="5"/>
       <c r="DV159" s="5"/>
       <c r="DW159" s="10" t="e">
-        <f ca="1">VLOOKUP(DW160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ref="DW159:EK159" ca="1" si="9">VLOOKUP(DW160,$EN$127:$EO$141,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="DX159" s="10" t="e">
-        <f ca="1">VLOOKUP(DX160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="DY159" s="10" t="e">
-        <f ca="1">VLOOKUP(DY160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="DZ159" s="10" t="e">
-        <f ca="1">VLOOKUP(DZ160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EA159" s="10" t="e">
-        <f ca="1">VLOOKUP(EA160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EB159" s="10" t="e">
-        <f ca="1">VLOOKUP(EB160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EC159" s="10" t="e">
-        <f ca="1">VLOOKUP(EC160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="ED159" s="10" t="e">
-        <f ca="1">VLOOKUP(ED160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EE159" s="10" t="e">
-        <f ca="1">VLOOKUP(EE160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EF159" s="10" t="e">
-        <f ca="1">VLOOKUP(EF160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EG159" s="10" t="e">
-        <f ca="1">VLOOKUP(EG160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EH159" s="10" t="e">
-        <f ca="1">VLOOKUP(EH160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EI159" s="10" t="e">
-        <f ca="1">VLOOKUP(EI160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EJ159" s="10" t="e">
-        <f ca="1">VLOOKUP(EJ160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EK159" s="10" t="e">
-        <f ca="1">VLOOKUP(EK160,$EN$127:$EO$141,2,FALSE)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="EL159" s="6"/>
@@ -38539,12 +38617,12 @@
       <c r="EO159" s="1"/>
     </row>
     <row r="160" spans="1:149" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="18" t="s">
+      <c r="A160" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -38668,63 +38746,63 @@
       <c r="DU160" s="5"/>
       <c r="DV160" s="5"/>
       <c r="DW160" s="5">
-        <f t="shared" ref="DW160:EK160" ca="1" si="6">IF(ABS(DW161)&gt;ABS(DW163), DW162, DW164)</f>
+        <f t="shared" ref="DW160:EK160" ca="1" si="10">IF(ABS(DW161)&gt;ABS(DW163), DW162, DW164)</f>
         <v>-9.7783647439673767E-3</v>
       </c>
       <c r="DX160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-0.14158303274692649</v>
       </c>
       <c r="DY160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-3.1055343116351028E-3</v>
       </c>
       <c r="DZ160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-9.7783647439673767E-3</v>
       </c>
       <c r="EA160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-0.12374742086537883</v>
       </c>
       <c r="EB160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-3.1055343116351028E-3</v>
       </c>
       <c r="EC160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1.429810795594883E-2</v>
       </c>
       <c r="ED160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-0.10866982519039685</v>
       </c>
       <c r="EE160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-0.14579519253384862</v>
       </c>
       <c r="EF160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-0.10866982519039685</v>
       </c>
       <c r="EG160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-0.14158303274692649</v>
       </c>
       <c r="EH160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-0.12374742086537883</v>
       </c>
       <c r="EI160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-0.11683199803209725</v>
       </c>
       <c r="EJ160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-4.9626714412973338E-2</v>
       </c>
       <c r="EK160" s="5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-4.9626714412973338E-2</v>
       </c>
       <c r="EL160" s="6"/>
@@ -38733,12 +38811,12 @@
       <c r="EO160" s="1"/>
     </row>
     <row r="161" spans="1:145" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B161" s="15"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="16"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="20"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -38866,59 +38944,59 @@
         <v>2.3446344963088922E-2</v>
       </c>
       <c r="DX161" s="12">
-        <f t="shared" ref="DX161:EK161" ca="1" si="7">MIN(DX127:DX136)</f>
+        <f t="shared" ref="DX161:EK161" ca="1" si="11">MIN(DX127:DX136)</f>
         <v>2.6368384859492743E-2</v>
       </c>
       <c r="DY161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6.4382319116551887E-2</v>
       </c>
       <c r="DZ161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.12648309196460727</v>
       </c>
       <c r="EA161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-9.1979708142111549E-3</v>
       </c>
       <c r="EB161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>9.5237492229165943E-2</v>
       </c>
       <c r="EC161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2.3446344963088922E-2</v>
       </c>
       <c r="ED161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.18947982298475397</v>
       </c>
       <c r="EE161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-9.1979708142111549E-3</v>
       </c>
       <c r="EF161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>9.7110747524402768E-2</v>
       </c>
       <c r="EG161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-0.21022621220655507</v>
       </c>
       <c r="EH161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-0.20609607400087723</v>
       </c>
       <c r="EI161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-0.25698155807197881</v>
       </c>
       <c r="EJ161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3.5738758123987323E-3</v>
       </c>
       <c r="EK161" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-0.23171331779125279</v>
       </c>
       <c r="EL161" s="6"/>
@@ -38927,12 +39005,12 @@
       <c r="EO161" s="1"/>
     </row>
     <row r="162" spans="1:145" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B162" s="15"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="16"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="20"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -39121,12 +39199,12 @@
       <c r="EO162" s="1"/>
     </row>
     <row r="163" spans="1:145" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="15"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="16"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="20"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -39254,59 +39332,59 @@
         <v>0.60233647926263578</v>
       </c>
       <c r="DX163" s="12">
-        <f t="shared" ref="DX163:EK163" ca="1" si="8">LARGE(DX127:DX136,2)</f>
+        <f t="shared" ref="DX163:EK163" ca="1" si="12">LARGE(DX127:DX136,2)</f>
         <v>0.60233647926263578</v>
       </c>
       <c r="DY163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.50217485268021189</v>
       </c>
       <c r="DZ163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.46026283762961856</v>
       </c>
       <c r="EA163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.40149057398385468</v>
       </c>
       <c r="EB163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.58909890943398191</v>
       </c>
       <c r="EC163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.58909890943398191</v>
       </c>
       <c r="ED163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.52620362725483782</v>
       </c>
       <c r="EE163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.78111205247705018</v>
       </c>
       <c r="EF163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.78111205247705018</v>
       </c>
       <c r="EG163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-6.0673006192941262E-2</v>
       </c>
       <c r="EH163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>5.3520096417939589E-2</v>
       </c>
       <c r="EI163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.1009758850403608</v>
       </c>
       <c r="EJ163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.24604102228498961</v>
       </c>
       <c r="EK163" s="12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.347196332088213E-3</v>
       </c>
       <c r="EL163" s="6"/>
@@ -39315,12 +39393,12 @@
       <c r="EO163" s="1"/>
     </row>
     <row r="164" spans="1:145" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B164" s="15"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="16"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="20"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
